--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_4.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_4.xlsx
@@ -518,1321 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_6</t>
+          <t>model_24_4_11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9754073655061295</v>
+        <v>0.9881906298509811</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7416983322546251</v>
+        <v>0.7566518370182307</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9859886589121355</v>
+        <v>0.9746744277014148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9122525861205334</v>
+        <v>0.6205086658499085</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9693573977991963</v>
+        <v>0.9466891723321594</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1644510600991813</v>
+        <v>0.07896931256363898</v>
       </c>
       <c r="H2" t="n">
-        <v>1.727264441583139</v>
+        <v>1.62727028637435</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1818459590158648</v>
+        <v>0.1625827405731745</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6043967348820375</v>
+        <v>0.2917612944713036</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3931213283353762</v>
+        <v>0.227172017522239</v>
       </c>
       <c r="L2" t="n">
-        <v>2.437530253412957</v>
+        <v>0.9614891647287938</v>
       </c>
       <c r="M2" t="n">
-        <v>0.405525658989886</v>
+        <v>0.281014790649245</v>
       </c>
       <c r="N2" t="n">
-        <v>1.010354793471103</v>
+        <v>1.004972366378534</v>
       </c>
       <c r="O2" t="n">
-        <v>0.422789725846926</v>
+        <v>0.2929781720679943</v>
       </c>
       <c r="P2" t="n">
-        <v>165.6102845200731</v>
+        <v>167.0773919010847</v>
       </c>
       <c r="Q2" t="n">
-        <v>264.3392263343973</v>
+        <v>265.8063337154089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_7</t>
+          <t>model_24_4_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9749477171350966</v>
+        <v>0.9880372855920632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7416810569356593</v>
+        <v>0.7566484172017097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9856191788451321</v>
+        <v>0.9740483819687659</v>
       </c>
       <c r="E3" t="n">
-        <v>0.903478092252609</v>
+        <v>0.6077066826308117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9668150300630076</v>
+        <v>0.9450627246941521</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1675247308727643</v>
+        <v>0.07999472632910835</v>
       </c>
       <c r="H3" t="n">
-        <v>1.727379961720609</v>
+        <v>1.627293154703173</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1866412499662568</v>
+        <v>0.1666017704192988</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6648347034733483</v>
+        <v>0.3016037410825517</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4257379767198025</v>
+        <v>0.2341027557509252</v>
       </c>
       <c r="L3" t="n">
-        <v>2.519495316902206</v>
+        <v>0.973697703091612</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4092978510483097</v>
+        <v>0.282833389699852</v>
       </c>
       <c r="N3" t="n">
-        <v>1.010548329627328</v>
+        <v>1.005036932382289</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4267225079307908</v>
+        <v>0.2948741926452046</v>
       </c>
       <c r="P3" t="n">
-        <v>165.5732485832284</v>
+        <v>167.0515891347346</v>
       </c>
       <c r="Q3" t="n">
-        <v>264.3021903975526</v>
+        <v>265.7805309490588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_8</t>
+          <t>model_24_4_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9743798602265665</v>
+        <v>0.9883346641083049</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7415357546963091</v>
+        <v>0.7566319997598804</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9852720475462922</v>
+        <v>0.9753690061136087</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8952798787965527</v>
+        <v>0.6345073266079255</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9644386650556536</v>
+        <v>0.9484752028432784</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1713219926348461</v>
+        <v>0.07800615482169757</v>
       </c>
       <c r="H4" t="n">
-        <v>1.728351598464199</v>
+        <v>1.627402938212281</v>
       </c>
       <c r="I4" t="n">
-        <v>0.191146487797961</v>
+        <v>0.1581237510401421</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7213033015281325</v>
+        <v>0.2809988158161038</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4562249360902523</v>
+        <v>0.2195612530243557</v>
       </c>
       <c r="L4" t="n">
-        <v>2.592584358966397</v>
+        <v>0.9478510074389199</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4139106094736473</v>
+        <v>0.2792958195564294</v>
       </c>
       <c r="N4" t="n">
-        <v>1.010787427273025</v>
+        <v>1.004911720375451</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4315316410320212</v>
+        <v>0.2911860208169968</v>
       </c>
       <c r="P4" t="n">
-        <v>165.528420990466</v>
+        <v>167.1019350948703</v>
       </c>
       <c r="Q4" t="n">
-        <v>264.2573628047902</v>
+        <v>265.8308769091945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_5</t>
+          <t>model_24_4_13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9757032874219866</v>
+        <v>0.9878800845377995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7415350908346903</v>
+        <v>0.7566281222507956</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9863789733600929</v>
+        <v>0.973484375342458</v>
       </c>
       <c r="E5" t="n">
-        <v>0.921571198848138</v>
+        <v>0.5960197565638019</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9720563659687805</v>
+        <v>0.9435835833861507</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1624722288852498</v>
+        <v>0.0810459305028142</v>
       </c>
       <c r="H5" t="n">
-        <v>1.728356037709901</v>
+        <v>1.627428867133385</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1767802693961855</v>
+        <v>0.1702225274124856</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5402109217943609</v>
+        <v>0.3105889072006075</v>
       </c>
       <c r="K5" t="n">
-        <v>0.358495615251059</v>
+        <v>0.2404057814182957</v>
       </c>
       <c r="L5" t="n">
-        <v>2.345484695995558</v>
+        <v>0.9845954728871337</v>
       </c>
       <c r="M5" t="n">
-        <v>0.403078440114638</v>
+        <v>0.2846856696477963</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01023019476969</v>
+        <v>1.005103122299874</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4202383237977172</v>
+        <v>0.296805327985281</v>
       </c>
       <c r="P5" t="n">
-        <v>165.6344963819699</v>
+        <v>167.0254784835467</v>
       </c>
       <c r="Q5" t="n">
-        <v>264.3634381962942</v>
+        <v>265.7544202978709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_9</t>
+          <t>model_24_4_14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9737457896865934</v>
+        <v>0.9877231711110837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7413019254568425</v>
+        <v>0.7565960118433162</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9849478101954636</v>
+        <v>0.9729765186036069</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8876677168732314</v>
+        <v>0.5853718200402698</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9622312115194398</v>
+        <v>0.9422405029609286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1755620252552725</v>
+        <v>0.08209521130978312</v>
       </c>
       <c r="H6" t="n">
-        <v>1.729915215665196</v>
+        <v>1.627643589576055</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1953545969033228</v>
+        <v>0.1734828186093633</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7737352263956684</v>
+        <v>0.3187752752780543</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4845448894906918</v>
+        <v>0.2461290144506794</v>
       </c>
       <c r="L6" t="n">
-        <v>2.657828071879723</v>
+        <v>0.9942494610811994</v>
       </c>
       <c r="M6" t="n">
-        <v>0.419001223453193</v>
+        <v>0.2865226191939881</v>
       </c>
       <c r="N6" t="n">
-        <v>1.011054404342487</v>
+        <v>1.005169191111123</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4368389729876999</v>
+        <v>0.298720480276664</v>
       </c>
       <c r="P6" t="n">
-        <v>165.479525756513</v>
+        <v>166.9997511835098</v>
       </c>
       <c r="Q6" t="n">
-        <v>264.2084675708372</v>
+        <v>265.7286929978341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_4</t>
+          <t>model_24_4_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9757620476774124</v>
+        <v>0.9884620067188973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7411214898187501</v>
+        <v>0.756580620674847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9867871998927628</v>
+        <v>0.9761391080872949</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9313674319893051</v>
+        <v>0.649775859231374</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9748926131956538</v>
+        <v>0.9504326776174886</v>
       </c>
       <c r="G7" t="n">
-        <v>0.162079298786652</v>
+        <v>0.07715461419830769</v>
       </c>
       <c r="H7" t="n">
-        <v>1.73112178960795</v>
+        <v>1.627746510390478</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1714821080807523</v>
+        <v>0.1531799224100692</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4727352998598199</v>
+        <v>0.2692600317069183</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3221087160572734</v>
+        <v>0.2112199176304114</v>
       </c>
       <c r="L7" t="n">
-        <v>2.241981677767154</v>
+        <v>0.9323836984571463</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4025907336075334</v>
+        <v>0.2777671942442226</v>
       </c>
       <c r="N7" t="n">
-        <v>1.010205453609511</v>
+        <v>1.004858102434149</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4197298546149136</v>
+        <v>0.2895923187605587</v>
       </c>
       <c r="P7" t="n">
-        <v>165.6393391296642</v>
+        <v>167.1238877876349</v>
       </c>
       <c r="Q7" t="n">
-        <v>264.3682809439885</v>
+        <v>265.8528296019591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_10</t>
+          <t>model_24_4_15</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9730768004832161</v>
+        <v>0.9875694385165588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7410092680392342</v>
+        <v>0.7565558760156683</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9846464525778073</v>
+        <v>0.9725192184900637</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8806346890607872</v>
+        <v>0.5756828619508795</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9601907883424631</v>
+        <v>0.9410219689535286</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1800355591386687</v>
+        <v>0.08312322187724415</v>
       </c>
       <c r="H8" t="n">
-        <v>1.731872217164308</v>
+        <v>1.627911978040345</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1992657617693992</v>
+        <v>0.1764185511111884</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8221781246902525</v>
+        <v>0.3262243596176737</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5107219701590667</v>
+        <v>0.2513215211325353</v>
       </c>
       <c r="L8" t="n">
-        <v>2.71623125132916</v>
+        <v>1.002817091881766</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4243059734892601</v>
+        <v>0.2883109811943418</v>
       </c>
       <c r="N8" t="n">
-        <v>1.011336084007067</v>
+        <v>1.005233920624607</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4423695572151488</v>
+        <v>0.3005849765497925</v>
       </c>
       <c r="P8" t="n">
-        <v>165.4292017936642</v>
+        <v>166.9748623423707</v>
       </c>
       <c r="Q8" t="n">
-        <v>264.1581436079885</v>
+        <v>265.703804156695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_11</t>
+          <t>model_24_4_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9723960829521233</v>
+        <v>0.9874209549517585</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7406801988702476</v>
+        <v>0.7565106595043376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9843673417415821</v>
+        <v>0.9721076827142382</v>
       </c>
       <c r="E9" t="n">
-        <v>0.874163337776626</v>
+        <v>0.5668760454696939</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9583123986361739</v>
+        <v>0.9399175242631482</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1845875204035022</v>
+        <v>0.08411613215876743</v>
       </c>
       <c r="H9" t="n">
-        <v>1.734072704212545</v>
+        <v>1.628214341059816</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2028881971499088</v>
+        <v>0.1790604899976534</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8667522427582149</v>
+        <v>0.3329952340632695</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5348202843828026</v>
+        <v>0.2560278620304615</v>
       </c>
       <c r="L9" t="n">
-        <v>2.768440981578656</v>
+        <v>1.010422399129401</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4296364979881274</v>
+        <v>0.2900278127331367</v>
       </c>
       <c r="N9" t="n">
-        <v>1.011622701914895</v>
+        <v>1.005296440020312</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4479270131776398</v>
+        <v>0.302374897161525</v>
       </c>
       <c r="P9" t="n">
-        <v>165.3792631252932</v>
+        <v>166.9511138184959</v>
       </c>
       <c r="Q9" t="n">
-        <v>264.1082049396174</v>
+        <v>265.6800556328201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_3</t>
+          <t>model_24_4_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9754868786705763</v>
+        <v>0.9885629168270708</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7403640961555665</v>
+        <v>0.756487154688701</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9872083479670613</v>
+        <v>0.9769919870793048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9415265223523783</v>
+        <v>0.6663846735783263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9778328054818932</v>
+        <v>0.9525733916694922</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1639193552024019</v>
+        <v>0.07647982784030374</v>
       </c>
       <c r="H10" t="n">
-        <v>1.736186484521136</v>
+        <v>1.628371517870208</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1660162447505951</v>
+        <v>0.1477046896191408</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4027603481963175</v>
+        <v>0.2564908094943662</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2843882806466811</v>
+        <v>0.2020977495567535</v>
       </c>
       <c r="L10" t="n">
-        <v>2.125391647460138</v>
+        <v>0.9148049206508311</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4048695533161291</v>
+        <v>0.2765498650158841</v>
       </c>
       <c r="N10" t="n">
-        <v>1.010321314243968</v>
+        <v>1.004815613967549</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4221056883963112</v>
+        <v>0.288323165306751</v>
       </c>
       <c r="P10" t="n">
-        <v>165.6167614173415</v>
+        <v>167.1414565225672</v>
       </c>
       <c r="Q10" t="n">
-        <v>264.3457032316657</v>
+        <v>265.8703983368914</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_12</t>
+          <t>model_24_4_17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.971720596825583</v>
+        <v>0.9872792364982901</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7403313718902396</v>
+        <v>0.7564626604058349</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9841099526839131</v>
+        <v>0.9717374093890544</v>
       </c>
       <c r="E11" t="n">
-        <v>0.868228702535336</v>
+        <v>0.5588847292658214</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9565890820567932</v>
+        <v>0.9389177199988864</v>
       </c>
       <c r="G11" t="n">
-        <v>0.189104499242005</v>
+        <v>0.08506380410966413</v>
       </c>
       <c r="H11" t="n">
-        <v>1.736405311834059</v>
+        <v>1.628535311252519</v>
       </c>
       <c r="I11" t="n">
-        <v>0.206228716786002</v>
+        <v>0.181437536062389</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9076295063033113</v>
+        <v>0.3391391339375396</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5569291280896459</v>
+        <v>0.2602883014529148</v>
       </c>
       <c r="L11" t="n">
-        <v>2.815155637120438</v>
+        <v>1.017188736972451</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4348614713239205</v>
+        <v>0.2916569973610511</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01190711712607</v>
+        <v>1.005356110948088</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4533744244455236</v>
+        <v>0.3040734395519268</v>
       </c>
       <c r="P11" t="n">
-        <v>165.3309110213527</v>
+        <v>166.9287073349886</v>
       </c>
       <c r="Q11" t="n">
-        <v>264.059852835677</v>
+        <v>265.6576491493128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_13</t>
+          <t>model_24_4_18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9710622582623708</v>
+        <v>0.9871450407662863</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7399751182338242</v>
+        <v>0.7564135006388392</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9838729483868019</v>
+        <v>0.9714041452788343</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8628015524278984</v>
+        <v>0.5516358497501407</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9550123046465375</v>
+        <v>0.9380127451474276</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1935068122455752</v>
+        <v>0.08596117158748823</v>
       </c>
       <c r="H12" t="n">
-        <v>1.738787581674906</v>
+        <v>1.628864042840779</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2093046731436977</v>
+        <v>0.1835769938300337</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9450112553444372</v>
+        <v>0.3447122321367334</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5771579854806352</v>
+        <v>0.2641446468110042</v>
       </c>
       <c r="L12" t="n">
-        <v>2.85697410755278</v>
+        <v>1.023212518103601</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4398940920785084</v>
+        <v>0.2931913566043314</v>
       </c>
       <c r="N12" t="n">
-        <v>1.012184312310581</v>
+        <v>1.005412614414195</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4586212942845954</v>
+        <v>0.3056731196447551</v>
       </c>
       <c r="P12" t="n">
-        <v>165.284885123457</v>
+        <v>166.9077191557022</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.0138269377812</v>
+        <v>265.6366609700264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_14</t>
+          <t>model_24_4_19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.970429365384311</v>
+        <v>0.9870189433280163</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7396204443899939</v>
+        <v>0.7563644843706399</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9836555057399913</v>
+        <v>0.97110430806397</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8578496583489237</v>
+        <v>0.5450683584333378</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9535730044095765</v>
+        <v>0.9371944415120246</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1977389698353649</v>
+        <v>0.08680438573782495</v>
       </c>
       <c r="H13" t="n">
-        <v>1.741159287301722</v>
+        <v>1.629191814851928</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2121267489458832</v>
+        <v>0.1855018607409864</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9791194812224688</v>
+        <v>0.3497614640837839</v>
       </c>
       <c r="K13" t="n">
-        <v>0.595623115084176</v>
+        <v>0.2676316624123852</v>
       </c>
       <c r="L13" t="n">
-        <v>2.894439333007467</v>
+        <v>1.028585491490946</v>
       </c>
       <c r="M13" t="n">
-        <v>0.444678501656382</v>
+        <v>0.2946258402411862</v>
       </c>
       <c r="N13" t="n">
-        <v>1.012450793522395</v>
+        <v>1.005465708072414</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4636093860832922</v>
+        <v>0.3071686722198212</v>
       </c>
       <c r="P13" t="n">
-        <v>165.2416149044388</v>
+        <v>166.8881962633176</v>
       </c>
       <c r="Q13" t="n">
-        <v>263.9705567187631</v>
+        <v>265.6171380776419</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_15</t>
+          <t>model_24_4_7</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9698274481092413</v>
+        <v>0.9886247287309836</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7392738710406384</v>
+        <v>0.7563382614858793</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9834563261740784</v>
+        <v>0.9779353729322238</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8533407902134064</v>
+        <v>0.6843945534795671</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9522618696683487</v>
+        <v>0.9549086856265665</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2017639934253305</v>
+        <v>0.07606649135422053</v>
       </c>
       <c r="H14" t="n">
-        <v>1.743476824884686</v>
+        <v>1.629367167403067</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2147117976541165</v>
+        <v>0.141648429346827</v>
       </c>
       <c r="J14" t="n">
-        <v>1.010176182025796</v>
+        <v>0.2426444172308198</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6124439786557616</v>
+        <v>0.1921464232888234</v>
       </c>
       <c r="L14" t="n">
-        <v>2.928007089982084</v>
+        <v>0.8947886374524812</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4491814704830672</v>
+        <v>0.2758015434224771</v>
       </c>
       <c r="N14" t="n">
-        <v>1.012704232375056</v>
+        <v>1.004789587902744</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4683040556153599</v>
+        <v>0.2875429861138734</v>
       </c>
       <c r="P14" t="n">
-        <v>165.2013132280254</v>
+        <v>167.1522948698919</v>
       </c>
       <c r="Q14" t="n">
-        <v>263.9302550423496</v>
+        <v>265.8812366842162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_2</t>
+          <t>model_24_4_20</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9747496749635374</v>
+        <v>0.9869011392128816</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7391370772881587</v>
+        <v>0.7563164616511378</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9876346278621608</v>
+        <v>0.9708345106565321</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9518586135853982</v>
+        <v>0.5391217829281552</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9808220326222877</v>
+        <v>0.9364547450453518</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1688490397858813</v>
+        <v>0.08759214239816891</v>
       </c>
       <c r="H15" t="n">
-        <v>1.744391565337394</v>
+        <v>1.629512942998363</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604837781688843</v>
+        <v>0.1872338809055703</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3315937812326629</v>
+        <v>0.3543333222816769</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2460387652749999</v>
+        <v>0.2707837113682768</v>
       </c>
       <c r="L15" t="n">
-        <v>1.993813020700387</v>
+        <v>1.033374215318674</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4109124478351578</v>
+        <v>0.2959596972531377</v>
       </c>
       <c r="N15" t="n">
-        <v>1.010631715804826</v>
+        <v>1.005515309805102</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4284058414455312</v>
+        <v>0.3085593142862362</v>
       </c>
       <c r="P15" t="n">
-        <v>165.5575004379091</v>
+        <v>166.870127967428</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.2864422522333</v>
+        <v>265.5990697817522</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_16</t>
+          <t>model_24_4_21</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9692596820355313</v>
+        <v>0.986791616184449</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7389398570609502</v>
+        <v>0.7562701289651539</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9832741916410168</v>
+        <v>0.970591766689145</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8492413895015817</v>
+        <v>0.5337407366874742</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9510692777063156</v>
+        <v>0.9357865031107793</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2055606477745516</v>
+        <v>0.08832452339360458</v>
       </c>
       <c r="H16" t="n">
-        <v>1.745710377904853</v>
+        <v>1.629822769882879</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2170756276848607</v>
+        <v>0.1887922259257777</v>
       </c>
       <c r="J16" t="n">
-        <v>1.038412505988612</v>
+        <v>0.358470389127504</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6277440283448933</v>
+        <v>0.2736312730196481</v>
       </c>
       <c r="L16" t="n">
-        <v>2.958109083938612</v>
+        <v>1.037652672275717</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4533879660671991</v>
+        <v>0.2971944201925813</v>
       </c>
       <c r="N16" t="n">
-        <v>1.012943291774513</v>
+        <v>1.005561424764442</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4726896304251545</v>
+        <v>0.3098466019374408</v>
       </c>
       <c r="P16" t="n">
-        <v>165.1640283311911</v>
+        <v>166.8534749636093</v>
       </c>
       <c r="Q16" t="n">
-        <v>263.8929701455153</v>
+        <v>265.5824167779335</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_17</t>
+          <t>model_24_4_22</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9687277930549206</v>
+        <v>0.9866901822611418</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7386214039907038</v>
+        <v>0.7562258631210879</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9831080422584443</v>
+        <v>0.9703733717919787</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8455193245949575</v>
+        <v>0.5288725566214523</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9499860604296223</v>
+        <v>0.9351828262780137</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2091173918370183</v>
+        <v>0.08900281250582048</v>
       </c>
       <c r="H17" t="n">
-        <v>1.747839875051934</v>
+        <v>1.630118775785974</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2192319947038576</v>
+        <v>0.1901942570621279</v>
       </c>
       <c r="J17" t="n">
-        <v>1.064049772970324</v>
+        <v>0.3622131531644297</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6416408838370908</v>
+        <v>0.2762037051132789</v>
       </c>
       <c r="L17" t="n">
-        <v>2.985113464006246</v>
+        <v>1.041478676426039</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4572935510555756</v>
+        <v>0.2983333915367512</v>
       </c>
       <c r="N17" t="n">
-        <v>1.013167245029507</v>
+        <v>1.005604133784782</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4767614842521617</v>
+        <v>0.3110340616497277</v>
       </c>
       <c r="P17" t="n">
-        <v>165.1297190025434</v>
+        <v>166.8381746171206</v>
       </c>
       <c r="Q17" t="n">
-        <v>263.8586608168677</v>
+        <v>265.5671164314448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_18</t>
+          <t>model_24_4_23</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9682322846189214</v>
+        <v>0.9865966669389795</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7383204163372634</v>
+        <v>0.7561839692866211</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9829565005828909</v>
+        <v>0.970177057337084</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8421440748153527</v>
+        <v>0.5244742296115807</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9490033360819704</v>
+        <v>0.9346381755025754</v>
       </c>
       <c r="G18" t="n">
-        <v>0.212430859030152</v>
+        <v>0.08962814989571755</v>
       </c>
       <c r="H18" t="n">
-        <v>1.74985258087641</v>
+        <v>1.630398920049956</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2211987758384448</v>
+        <v>0.1914545382401637</v>
       </c>
       <c r="J18" t="n">
-        <v>1.087298206810285</v>
+        <v>0.3655946838251553</v>
       </c>
       <c r="K18" t="n">
-        <v>0.654248491324365</v>
+        <v>0.2785246110326595</v>
       </c>
       <c r="L18" t="n">
-        <v>3.009345997418175</v>
+        <v>1.044893987581266</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4609022228522575</v>
+        <v>0.2993796083498633</v>
       </c>
       <c r="N18" t="n">
-        <v>1.013375880160454</v>
+        <v>1.005643508657272</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4805237846782088</v>
+        <v>0.3121248180785414</v>
       </c>
       <c r="P18" t="n">
-        <v>165.0982774256632</v>
+        <v>166.8241716707999</v>
       </c>
       <c r="Q18" t="n">
-        <v>263.8272192399874</v>
+        <v>265.5531134851241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_19</t>
+          <t>model_24_4_24</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9677728969352319</v>
+        <v>0.9865105780903404</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7380379518157261</v>
+        <v>0.7561445956669898</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9828186760376987</v>
+        <v>0.9700001751096314</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8390865798423434</v>
+        <v>0.5204985982418929</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9481128500699132</v>
+        <v>0.9341462938009991</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2155027865862686</v>
+        <v>0.09020382642297017</v>
       </c>
       <c r="H19" t="n">
-        <v>1.751741422432559</v>
+        <v>1.63066221162573</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2229875294230762</v>
+        <v>0.192590070221786</v>
       </c>
       <c r="J19" t="n">
-        <v>1.108357972527638</v>
+        <v>0.3686512367695293</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6656727509753568</v>
+        <v>0.2806206534956577</v>
       </c>
       <c r="L19" t="n">
-        <v>3.031094146089939</v>
+        <v>1.047952138285881</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4642227768930221</v>
+        <v>0.3003395185835027</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013569306553586</v>
+        <v>1.005679756593541</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4839857015789832</v>
+        <v>0.3131255936781149</v>
       </c>
       <c r="P19" t="n">
-        <v>165.0695628774544</v>
+        <v>166.8113668625453</v>
       </c>
       <c r="Q19" t="n">
-        <v>263.7985046917786</v>
+        <v>265.5403086768695</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_20</t>
+          <t>model_24_4_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.967348559115791</v>
+        <v>0.9886307899989574</v>
       </c>
       <c r="C20" t="n">
-        <v>0.737774341213802</v>
+        <v>0.7561168254375322</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9826934068234009</v>
+        <v>0.9789771617457825</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8363188233923614</v>
+        <v>0.7038418005798537</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9473064938787989</v>
+        <v>0.9574477681548784</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2183403355387666</v>
+        <v>0.07602595962737028</v>
       </c>
       <c r="H20" t="n">
-        <v>1.753504187741441</v>
+        <v>1.630847911277983</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2246133338529513</v>
+        <v>0.1349604509505275</v>
       </c>
       <c r="J20" t="n">
-        <v>1.127422043904324</v>
+        <v>0.2276929454123913</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6760176888786376</v>
+        <v>0.1813266981814594</v>
       </c>
       <c r="L20" t="n">
-        <v>3.050621355499407</v>
+        <v>0.8719502277153992</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4672690183810249</v>
+        <v>0.2757280537547282</v>
       </c>
       <c r="N20" t="n">
-        <v>1.013747975109141</v>
+        <v>1.004787035789913</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4871616278737195</v>
+        <v>0.2874663678388238</v>
       </c>
       <c r="P20" t="n">
-        <v>165.0434005227187</v>
+        <v>167.1533608459492</v>
       </c>
       <c r="Q20" t="n">
-        <v>263.7723423370429</v>
+        <v>265.8823026602734</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_21</t>
+          <t>model_24_4_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9669578828874762</v>
+        <v>0.9885597920914861</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7375295228671273</v>
+        <v>0.7558012206696384</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9825795397515998</v>
+        <v>0.9801248119457171</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8338154152690619</v>
+        <v>0.7247421710004653</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9465768683120257</v>
+        <v>0.9601976909557693</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2209527892764064</v>
+        <v>0.07650072296154557</v>
       </c>
       <c r="H21" t="n">
-        <v>1.755141289152939</v>
+        <v>1.632958361814115</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2260911557646543</v>
+        <v>0.1275928735262202</v>
       </c>
       <c r="J21" t="n">
-        <v>1.144665306456515</v>
+        <v>0.2116242803860759</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6853782311105844</v>
+        <v>0.1696085250065635</v>
       </c>
       <c r="L21" t="n">
-        <v>3.068158167557471</v>
+        <v>0.8458371735824339</v>
       </c>
       <c r="M21" t="n">
-        <v>0.47005615544997</v>
+        <v>0.276587640652191</v>
       </c>
       <c r="N21" t="n">
-        <v>1.013912470363168</v>
+        <v>1.00481692964569</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4900674191378588</v>
+        <v>0.2883625491301018</v>
       </c>
       <c r="P21" t="n">
-        <v>165.0196124469375</v>
+        <v>167.1409101754332</v>
       </c>
       <c r="Q21" t="n">
-        <v>263.7485542612617</v>
+        <v>265.8698519897574</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_22</t>
+          <t>model_24_4_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9665992634151114</v>
+        <v>0.9883840069546901</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7373030579485931</v>
+        <v>0.7553640081116901</v>
       </c>
       <c r="D22" t="n">
-        <v>0.982476249292715</v>
+        <v>0.9813852922654314</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8315526078146274</v>
+        <v>0.7470686200593366</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9459171808410098</v>
+        <v>0.9631612270240166</v>
       </c>
       <c r="G22" t="n">
-        <v>0.223350879339401</v>
+        <v>0.07767619898071715</v>
       </c>
       <c r="H22" t="n">
-        <v>1.756655661105953</v>
+        <v>1.635882004202294</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2274317092802177</v>
+        <v>0.1195009598509209</v>
       </c>
       <c r="J22" t="n">
-        <v>1.160251332034495</v>
+        <v>0.194459214698996</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6938415206573563</v>
+        <v>0.1569800872749584</v>
       </c>
       <c r="L22" t="n">
-        <v>3.083912330776099</v>
+        <v>0.8159079717310732</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4726001262583422</v>
+        <v>0.2787045011848878</v>
       </c>
       <c r="N22" t="n">
-        <v>1.014063468035743</v>
+        <v>1.00489094444013</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4927196920502889</v>
+        <v>0.2905695287981809</v>
       </c>
       <c r="P22" t="n">
-        <v>164.9980225882899</v>
+        <v>167.1104127759168</v>
       </c>
       <c r="Q22" t="n">
-        <v>263.7269644026142</v>
+        <v>265.839354590241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_1</t>
+          <t>model_24_4_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.973379389353492</v>
+        <v>0.9880678998711596</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7372696954206208</v>
+        <v>0.7547704532004983</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9880539226223168</v>
+        <v>0.9827638238713525</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9620573767697221</v>
+        <v>0.7707363053886115</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9837719333528224</v>
+        <v>0.966334720609344</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1780121459698404</v>
+        <v>0.07979000850382505</v>
       </c>
       <c r="H23" t="n">
-        <v>1.756878756484124</v>
+        <v>1.639851108626503</v>
       </c>
       <c r="I23" t="n">
-        <v>0.15504196804573</v>
+        <v>0.1106511915686884</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2613455665455869</v>
+        <v>0.1762629770318728</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2081937778928614</v>
+        <v>0.1434569631384408</v>
       </c>
       <c r="L23" t="n">
-        <v>1.844987670581506</v>
+        <v>0.7815459617714822</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4219148563037813</v>
+        <v>0.2824712525263855</v>
       </c>
       <c r="N23" t="n">
-        <v>1.011208678166951</v>
+        <v>1.005024042159512</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4398766452207893</v>
+        <v>0.2944966385425363</v>
       </c>
       <c r="P23" t="n">
-        <v>165.4518069904648</v>
+        <v>167.0567139781687</v>
       </c>
       <c r="Q23" t="n">
-        <v>264.180748804789</v>
+        <v>265.785655792493</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_23</t>
+          <t>model_24_4_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9662708006309011</v>
+        <v>0.9875658865170468</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7370942580426574</v>
+        <v>0.7539764795070677</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9823825938473946</v>
+        <v>0.9842629025307954</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8295081689557586</v>
+        <v>0.7955825820309654</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9453209888119229</v>
+        <v>0.9697052982133965</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2255473114898469</v>
+        <v>0.08314697411433628</v>
       </c>
       <c r="H24" t="n">
-        <v>1.75805190703838</v>
+        <v>1.645160414370386</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2286472149312871</v>
+        <v>0.1010275465859217</v>
       </c>
       <c r="J24" t="n">
-        <v>1.174333253271097</v>
+        <v>0.1571606124095012</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7014902118775648</v>
+        <v>0.12909401009448</v>
       </c>
       <c r="L24" t="n">
-        <v>3.098064839692656</v>
+        <v>0.7420019413010907</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4749182155801637</v>
+        <v>0.2883521702958663</v>
       </c>
       <c r="N24" t="n">
-        <v>1.01420176815541</v>
+        <v>1.005235416203349</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4951364672336468</v>
+        <v>0.300627919156642</v>
       </c>
       <c r="P24" t="n">
-        <v>164.978450669991</v>
+        <v>166.9742909293857</v>
       </c>
       <c r="Q24" t="n">
-        <v>263.7073924843152</v>
+        <v>265.7032327437099</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_24</t>
+          <t>model_24_4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9659706303069376</v>
+        <v>0.9868194217318573</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7369023636721332</v>
+        <v>0.752926231522925</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9822978201779214</v>
+        <v>0.985880439723274</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8276619695030032</v>
+        <v>0.8213293580086288</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9447824972221782</v>
+        <v>0.9732463400236736</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2275545518283478</v>
+        <v>0.08813858757005252</v>
       </c>
       <c r="H25" t="n">
-        <v>1.759335105577667</v>
+        <v>1.652183427476295</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2297474486011374</v>
+        <v>0.09064343259111607</v>
       </c>
       <c r="J25" t="n">
-        <v>1.187049718313807</v>
+        <v>0.1373659240682525</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7083986502559582</v>
+        <v>0.1140046624448184</v>
       </c>
       <c r="L25" t="n">
-        <v>3.110782705299824</v>
+        <v>0.6964019327591822</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4770267831352321</v>
+        <v>0.2968814368903056</v>
       </c>
       <c r="N25" t="n">
-        <v>1.014328155660237</v>
+        <v>1.005549717165534</v>
       </c>
       <c r="O25" t="n">
-        <v>0.497334800874871</v>
+        <v>0.3095202942880225</v>
       </c>
       <c r="P25" t="n">
-        <v>164.9607305621585</v>
+        <v>166.8576896890859</v>
       </c>
       <c r="Q25" t="n">
-        <v>263.6896723764827</v>
+        <v>265.5866315034101</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9711445454368548</v>
+        <v>0.9857535301038658</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7345283025655045</v>
+        <v>0.7515490248145623</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9884480961328652</v>
+        <v>0.9876069195011593</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9716273684893345</v>
+        <v>0.8475469905656586</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9865403383410157</v>
+        <v>0.9769119340644851</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1929565575309033</v>
+        <v>0.09526620979441124</v>
       </c>
       <c r="H26" t="n">
-        <v>1.775210463129239</v>
+        <v>1.66139281507657</v>
       </c>
       <c r="I26" t="n">
-        <v>0.14992619364592</v>
+        <v>0.0795599391749203</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1954282763092376</v>
+        <v>0.1172092308200566</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1726772431287131</v>
+        <v>0.09838456367507134</v>
       </c>
       <c r="L26" t="n">
-        <v>1.67622729546216</v>
+        <v>0.6437244975983155</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4392682068291573</v>
+        <v>0.3086522473503331</v>
       </c>
       <c r="N26" t="n">
-        <v>1.012149665079219</v>
+        <v>1.005998513640478</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4579687638044183</v>
+        <v>0.3217922125182701</v>
       </c>
       <c r="P26" t="n">
-        <v>165.2905804118548</v>
+        <v>166.7021601957719</v>
       </c>
       <c r="Q26" t="n">
-        <v>264.019522226179</v>
+        <v>265.4311020100961</v>
       </c>
     </row>
   </sheetData>
